--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Calcrl</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H2">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.471903527247</v>
+        <v>51.12972666666667</v>
       </c>
       <c r="N2">
-        <v>38.471903527247</v>
+        <v>153.38918</v>
       </c>
       <c r="O2">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="P2">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="Q2">
-        <v>283.0313187029878</v>
+        <v>442.3091535887733</v>
       </c>
       <c r="R2">
-        <v>283.0313187029878</v>
+        <v>3980.78238229896</v>
       </c>
       <c r="S2">
-        <v>0.09110821342236708</v>
+        <v>0.1161845982703646</v>
       </c>
       <c r="T2">
-        <v>0.09110821342236708</v>
+        <v>0.1161845982703646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H3">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I3">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J3">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9138884497142</v>
+        <v>13.00848233333333</v>
       </c>
       <c r="N3">
-        <v>12.9138884497142</v>
+        <v>39.025447</v>
       </c>
       <c r="O3">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="P3">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="Q3">
-        <v>95.00530367355708</v>
+        <v>112.5327903245426</v>
       </c>
       <c r="R3">
-        <v>95.00530367355708</v>
+        <v>1012.795112920884</v>
       </c>
       <c r="S3">
-        <v>0.03058235223936671</v>
+        <v>0.02955981564029746</v>
       </c>
       <c r="T3">
-        <v>0.03058235223936671</v>
+        <v>0.02955981564029747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H4">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I4">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J4">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.43246084478386</v>
+        <v>8.403045333333333</v>
       </c>
       <c r="N4">
-        <v>7.43246084478386</v>
+        <v>25.209136</v>
       </c>
       <c r="O4">
-        <v>0.08184705673048671</v>
+        <v>0.07981819192712479</v>
       </c>
       <c r="P4">
-        <v>0.08184705673048671</v>
+        <v>0.0798181919271248</v>
       </c>
       <c r="Q4">
-        <v>54.67936341173371</v>
+        <v>72.69242593815466</v>
       </c>
       <c r="R4">
-        <v>54.67936341173371</v>
+        <v>654.2318334433919</v>
       </c>
       <c r="S4">
-        <v>0.01760137052798466</v>
+        <v>0.01909465412686204</v>
       </c>
       <c r="T4">
-        <v>0.01760137052798466</v>
+        <v>0.01909465412686204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H5">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I5">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J5">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5521022842522</v>
+        <v>12.63665566666666</v>
       </c>
       <c r="N5">
-        <v>12.5521022842522</v>
+        <v>37.90996699999999</v>
       </c>
       <c r="O5">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173281</v>
       </c>
       <c r="P5">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173282</v>
       </c>
       <c r="Q5">
-        <v>92.34370374968832</v>
+        <v>109.3162204553693</v>
       </c>
       <c r="R5">
-        <v>92.34370374968832</v>
+        <v>983.8459840983238</v>
       </c>
       <c r="S5">
-        <v>0.02972557916202659</v>
+        <v>0.0287148955769747</v>
       </c>
       <c r="T5">
-        <v>0.02972557916202659</v>
+        <v>0.0287148955769747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H6">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I6">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J6">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.5032324386012</v>
+        <v>14.572368</v>
       </c>
       <c r="N6">
-        <v>14.5032324386012</v>
+        <v>43.717104</v>
       </c>
       <c r="O6">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="P6">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="Q6">
-        <v>106.6978398832294</v>
+        <v>126.061533594432</v>
       </c>
       <c r="R6">
-        <v>106.6978398832294</v>
+        <v>1134.553802349888</v>
       </c>
       <c r="S6">
-        <v>0.03434619748914802</v>
+        <v>0.0331135101301392</v>
       </c>
       <c r="T6">
-        <v>0.03434619748914802</v>
+        <v>0.03311351013013922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H7">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I7">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J7">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.93555259660574</v>
+        <v>5.527042000000001</v>
       </c>
       <c r="N7">
-        <v>4.93555259660574</v>
+        <v>16.581126</v>
       </c>
       <c r="O7">
-        <v>0.05435083504734406</v>
+        <v>0.05249983567210868</v>
       </c>
       <c r="P7">
-        <v>0.05435083504734406</v>
+        <v>0.05249983567210868</v>
       </c>
       <c r="Q7">
-        <v>36.31002970663874</v>
+        <v>47.81291487840799</v>
       </c>
       <c r="R7">
-        <v>36.31002970663874</v>
+        <v>430.316233905672</v>
       </c>
       <c r="S7">
-        <v>0.01168825397501852</v>
+        <v>0.01255936998411685</v>
       </c>
       <c r="T7">
-        <v>0.01168825397501852</v>
+        <v>0.01255936998411685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H8">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I8">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J8">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.471903527247</v>
+        <v>51.12972666666667</v>
       </c>
       <c r="N8">
-        <v>38.471903527247</v>
+        <v>153.38918</v>
       </c>
       <c r="O8">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="P8">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="Q8">
-        <v>1003.176190095211</v>
+        <v>1343.163143042327</v>
       </c>
       <c r="R8">
-        <v>1003.176190095211</v>
+        <v>12088.46828738094</v>
       </c>
       <c r="S8">
-        <v>0.3229239465309629</v>
+        <v>0.3528185408774546</v>
       </c>
       <c r="T8">
-        <v>0.3229239465309629</v>
+        <v>0.3528185408774546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H9">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I9">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J9">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9138884497142</v>
+        <v>13.00848233333333</v>
       </c>
       <c r="N9">
-        <v>12.9138884497142</v>
+        <v>39.025447</v>
       </c>
       <c r="O9">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="P9">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="Q9">
-        <v>336.7367929981363</v>
+        <v>341.7290714452723</v>
       </c>
       <c r="R9">
-        <v>336.7367929981363</v>
+        <v>3075.561643007451</v>
       </c>
       <c r="S9">
-        <v>0.1083960875574784</v>
+        <v>0.08976448839240445</v>
       </c>
       <c r="T9">
-        <v>0.1083960875574784</v>
+        <v>0.08976448839240445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H10">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I10">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J10">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.43246084478386</v>
+        <v>8.403045333333333</v>
       </c>
       <c r="N10">
-        <v>7.43246084478386</v>
+        <v>25.209136</v>
       </c>
       <c r="O10">
-        <v>0.08184705673048671</v>
+        <v>0.07981819192712479</v>
       </c>
       <c r="P10">
-        <v>0.08184705673048671</v>
+        <v>0.0798181919271248</v>
       </c>
       <c r="Q10">
-        <v>193.8055326017723</v>
+        <v>220.7455724265653</v>
       </c>
       <c r="R10">
-        <v>193.8055326017723</v>
+        <v>1986.710151839088</v>
       </c>
       <c r="S10">
-        <v>0.06238629670961352</v>
+        <v>0.05798486294992457</v>
       </c>
       <c r="T10">
-        <v>0.06238629670961352</v>
+        <v>0.05798486294992458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H11">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I11">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J11">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5521022842522</v>
+        <v>12.63665566666666</v>
       </c>
       <c r="N11">
-        <v>12.5521022842522</v>
+        <v>37.90996699999999</v>
       </c>
       <c r="O11">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173281</v>
       </c>
       <c r="P11">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173282</v>
       </c>
       <c r="Q11">
-        <v>327.3030183776452</v>
+        <v>331.9612923698456</v>
       </c>
       <c r="R11">
-        <v>327.3030183776452</v>
+        <v>2987.651631328611</v>
       </c>
       <c r="S11">
-        <v>0.1053593411103329</v>
+        <v>0.08719871402697668</v>
       </c>
       <c r="T11">
-        <v>0.1053593411103329</v>
+        <v>0.08719871402697668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H12">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I12">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J12">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.5032324386012</v>
+        <v>14.572368</v>
       </c>
       <c r="N12">
-        <v>14.5032324386012</v>
+        <v>43.717104</v>
       </c>
       <c r="O12">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="P12">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="Q12">
-        <v>378.179817682194</v>
+        <v>382.811895945648</v>
       </c>
       <c r="R12">
-        <v>378.179817682194</v>
+        <v>3445.307063510832</v>
       </c>
       <c r="S12">
-        <v>0.1217366604491515</v>
+        <v>0.10055601604147</v>
       </c>
       <c r="T12">
-        <v>0.1217366604491515</v>
+        <v>0.10055601604147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H13">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I13">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J13">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.93555259660574</v>
+        <v>5.527042000000001</v>
       </c>
       <c r="N13">
-        <v>4.93555259660574</v>
+        <v>16.581126</v>
       </c>
       <c r="O13">
-        <v>0.05435083504734406</v>
+        <v>0.05249983567210868</v>
       </c>
       <c r="P13">
-        <v>0.05435083504734406</v>
+        <v>0.05249983567210868</v>
       </c>
       <c r="Q13">
-        <v>128.6972672503937</v>
+        <v>145.193796024862</v>
       </c>
       <c r="R13">
-        <v>128.6972672503937</v>
+        <v>1306.744164223758</v>
       </c>
       <c r="S13">
-        <v>0.04142784673179175</v>
+        <v>0.03813912220813244</v>
       </c>
       <c r="T13">
-        <v>0.04142784673179175</v>
+        <v>0.03813912220813245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.77716763629918</v>
+        <v>0.021265</v>
       </c>
       <c r="H14">
-        <v>0.77716763629918</v>
+        <v>0.063795</v>
       </c>
       <c r="I14">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992926</v>
       </c>
       <c r="J14">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992925</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.471903527247</v>
+        <v>51.12972666666667</v>
       </c>
       <c r="N14">
-        <v>38.471903527247</v>
+        <v>153.38918</v>
       </c>
       <c r="O14">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="P14">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="Q14">
-        <v>29.89911832820064</v>
+        <v>1.087273637566667</v>
       </c>
       <c r="R14">
-        <v>29.89911832820064</v>
+        <v>9.785462738100001</v>
       </c>
       <c r="S14">
-        <v>0.009624571818657727</v>
+        <v>0.0002856021625726706</v>
       </c>
       <c r="T14">
-        <v>0.009624571818657727</v>
+        <v>0.0002856021625726705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.77716763629918</v>
+        <v>0.021265</v>
       </c>
       <c r="H15">
-        <v>0.77716763629918</v>
+        <v>0.063795</v>
       </c>
       <c r="I15">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992926</v>
       </c>
       <c r="J15">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992925</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9138884497142</v>
+        <v>13.00848233333333</v>
       </c>
       <c r="N15">
-        <v>12.9138884497142</v>
+        <v>39.025447</v>
       </c>
       <c r="O15">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="P15">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="Q15">
-        <v>10.03625616189567</v>
+        <v>0.2766253768183334</v>
       </c>
       <c r="R15">
-        <v>10.03625616189567</v>
+        <v>2.489628391365</v>
       </c>
       <c r="S15">
-        <v>0.003230686174766016</v>
+        <v>7.26632221292606E-05</v>
       </c>
       <c r="T15">
-        <v>0.003230686174766016</v>
+        <v>7.266322212926059E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.77716763629918</v>
+        <v>0.021265</v>
       </c>
       <c r="H16">
-        <v>0.77716763629918</v>
+        <v>0.063795</v>
       </c>
       <c r="I16">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992926</v>
       </c>
       <c r="J16">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992925</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.43246084478386</v>
+        <v>8.403045333333333</v>
       </c>
       <c r="N16">
-        <v>7.43246084478386</v>
+        <v>25.209136</v>
       </c>
       <c r="O16">
-        <v>0.08184705673048671</v>
+        <v>0.07981819192712479</v>
       </c>
       <c r="P16">
-        <v>0.08184705673048671</v>
+        <v>0.0798181919271248</v>
       </c>
       <c r="Q16">
-        <v>5.776268026626878</v>
+        <v>0.1786907590133333</v>
       </c>
       <c r="R16">
-        <v>5.776268026626878</v>
+        <v>1.60821683112</v>
       </c>
       <c r="S16">
-        <v>0.001859389492888517</v>
+        <v>4.693801582477045E-05</v>
       </c>
       <c r="T16">
-        <v>0.001859389492888517</v>
+        <v>4.693801582477044E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.77716763629918</v>
+        <v>0.021265</v>
       </c>
       <c r="H17">
-        <v>0.77716763629918</v>
+        <v>0.063795</v>
       </c>
       <c r="I17">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992926</v>
       </c>
       <c r="J17">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992925</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.5521022842522</v>
+        <v>12.63665566666666</v>
       </c>
       <c r="N17">
-        <v>12.5521022842522</v>
+        <v>37.90996699999999</v>
       </c>
       <c r="O17">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173281</v>
       </c>
       <c r="P17">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173282</v>
       </c>
       <c r="Q17">
-        <v>9.75508766283782</v>
+        <v>0.2687184827516667</v>
       </c>
       <c r="R17">
-        <v>9.75508766283782</v>
+        <v>2.418466344765</v>
       </c>
       <c r="S17">
-        <v>0.003140177605830255</v>
+        <v>7.058626011468719E-05</v>
       </c>
       <c r="T17">
-        <v>0.003140177605830255</v>
+        <v>7.058626011468719E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.77716763629918</v>
+        <v>0.021265</v>
       </c>
       <c r="H18">
-        <v>0.77716763629918</v>
+        <v>0.063795</v>
       </c>
       <c r="I18">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992926</v>
       </c>
       <c r="J18">
-        <v>0.02271785409475725</v>
+        <v>0.0005880616271992925</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.5032324386012</v>
+        <v>14.572368</v>
       </c>
       <c r="N18">
-        <v>14.5032324386012</v>
+        <v>43.717104</v>
       </c>
       <c r="O18">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="P18">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="Q18">
-        <v>11.27144287300529</v>
+        <v>0.30988140552</v>
       </c>
       <c r="R18">
-        <v>11.27144287300529</v>
+        <v>2.78893264968</v>
       </c>
       <c r="S18">
-        <v>0.003628294662080954</v>
+        <v>8.139882776486807E-05</v>
       </c>
       <c r="T18">
-        <v>0.003628294662080954</v>
+        <v>8.139882776486807E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021265</v>
+      </c>
+      <c r="H19">
+        <v>0.063795</v>
+      </c>
+      <c r="I19">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J19">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.527042000000001</v>
+      </c>
+      <c r="N19">
+        <v>16.581126</v>
+      </c>
+      <c r="O19">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="P19">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="Q19">
+        <v>0.11753254813</v>
+      </c>
+      <c r="R19">
+        <v>1.05779293317</v>
+      </c>
+      <c r="S19">
+        <v>3.087313879303569E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.087313879303569E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.956642</v>
+      </c>
+      <c r="I20">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J20">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>51.12972666666667</v>
+      </c>
+      <c r="N20">
+        <v>153.38918</v>
+      </c>
+      <c r="O20">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="P20">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="Q20">
+        <v>16.30428132595111</v>
+      </c>
+      <c r="R20">
+        <v>146.73853193356</v>
+      </c>
+      <c r="S20">
+        <v>0.004282765483311304</v>
+      </c>
+      <c r="T20">
+        <v>0.004282765483311304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.956642</v>
+      </c>
+      <c r="I21">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J21">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.00848233333333</v>
+      </c>
+      <c r="N21">
+        <v>39.025447</v>
+      </c>
+      <c r="O21">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="P21">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="Q21">
+        <v>4.148153518774889</v>
+      </c>
+      <c r="R21">
+        <v>37.333381668974</v>
+      </c>
+      <c r="S21">
+        <v>0.001089625991757663</v>
+      </c>
+      <c r="T21">
+        <v>0.001089625991757663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.956642</v>
+      </c>
+      <c r="I22">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J22">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.403045333333333</v>
+      </c>
+      <c r="N22">
+        <v>25.209136</v>
+      </c>
+      <c r="O22">
+        <v>0.07981819192712479</v>
+      </c>
+      <c r="P22">
+        <v>0.0798181919271248</v>
+      </c>
+      <c r="Q22">
+        <v>2.679568697923555</v>
+      </c>
+      <c r="R22">
+        <v>24.116118281312</v>
+      </c>
+      <c r="S22">
+        <v>0.0007038620163749515</v>
+      </c>
+      <c r="T22">
+        <v>0.0007038620163749516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.956642</v>
+      </c>
+      <c r="I23">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J23">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.63665566666666</v>
+      </c>
+      <c r="N23">
+        <v>37.90996699999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1200320797173281</v>
+      </c>
+      <c r="P23">
+        <v>0.1200320797173282</v>
+      </c>
+      <c r="Q23">
+        <v>4.029585183423777</v>
+      </c>
+      <c r="R23">
+        <v>36.266266650814</v>
+      </c>
+      <c r="S23">
+        <v>0.001058480775117714</v>
+      </c>
+      <c r="T23">
+        <v>0.001058480775117714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.956642</v>
+      </c>
+      <c r="I24">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J24">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.572368</v>
+      </c>
+      <c r="N24">
+        <v>43.717104</v>
+      </c>
+      <c r="O24">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="P24">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="Q24">
+        <v>4.646846422752</v>
+      </c>
+      <c r="R24">
+        <v>41.821617804768</v>
+      </c>
+      <c r="S24">
+        <v>0.001220621324408479</v>
+      </c>
+      <c r="T24">
+        <v>0.001220621324408479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.956642</v>
+      </c>
+      <c r="I25">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J25">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.527042000000001</v>
+      </c>
+      <c r="N25">
+        <v>16.581126</v>
+      </c>
+      <c r="O25">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="P25">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="Q25">
+        <v>1.762466837654667</v>
+      </c>
+      <c r="R25">
+        <v>15.862201538892</v>
+      </c>
+      <c r="S25">
+        <v>0.0004629601260482365</v>
+      </c>
+      <c r="T25">
+        <v>0.0004629601260482365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H26">
+        <v>2.701786</v>
+      </c>
+      <c r="I26">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J26">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>51.12972666666667</v>
+      </c>
+      <c r="N26">
+        <v>153.38918</v>
+      </c>
+      <c r="O26">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="P26">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="Q26">
+        <v>46.0471932306089</v>
+      </c>
+      <c r="R26">
+        <v>414.4247390754801</v>
+      </c>
+      <c r="S26">
+        <v>0.01209555489315096</v>
+      </c>
+      <c r="T26">
+        <v>0.01209555489315096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H27">
+        <v>2.701786</v>
+      </c>
+      <c r="I27">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J27">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.00848233333333</v>
+      </c>
+      <c r="N27">
+        <v>39.025447</v>
+      </c>
+      <c r="O27">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="P27">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="Q27">
+        <v>11.71537848314911</v>
+      </c>
+      <c r="R27">
+        <v>105.438406348342</v>
+      </c>
+      <c r="S27">
+        <v>0.003077364625185774</v>
+      </c>
+      <c r="T27">
+        <v>0.003077364625185774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="H19">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="I19">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="J19">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.93555259660574</v>
-      </c>
-      <c r="N19">
-        <v>4.93555259660574</v>
-      </c>
-      <c r="O19">
-        <v>0.05435083504734406</v>
-      </c>
-      <c r="P19">
-        <v>0.05435083504734406</v>
-      </c>
-      <c r="Q19">
-        <v>3.835751745334363</v>
-      </c>
-      <c r="R19">
-        <v>3.835751745334363</v>
-      </c>
-      <c r="S19">
-        <v>0.001234734340533781</v>
-      </c>
-      <c r="T19">
-        <v>0.001234734340533781</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H28">
+        <v>2.701786</v>
+      </c>
+      <c r="I28">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J28">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.403045333333333</v>
+      </c>
+      <c r="N28">
+        <v>25.209136</v>
+      </c>
+      <c r="O28">
+        <v>0.07981819192712479</v>
+      </c>
+      <c r="P28">
+        <v>0.0798181919271248</v>
+      </c>
+      <c r="Q28">
+        <v>7.567743412988444</v>
+      </c>
+      <c r="R28">
+        <v>68.10969071689601</v>
+      </c>
+      <c r="S28">
+        <v>0.001987874818138463</v>
+      </c>
+      <c r="T28">
+        <v>0.001987874818138463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H29">
+        <v>2.701786</v>
+      </c>
+      <c r="I29">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J29">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.63665566666666</v>
+      </c>
+      <c r="N29">
+        <v>37.90996699999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1200320797173281</v>
+      </c>
+      <c r="P29">
+        <v>0.1200320797173282</v>
+      </c>
+      <c r="Q29">
+        <v>11.38051312234022</v>
+      </c>
+      <c r="R29">
+        <v>102.424618101062</v>
+      </c>
+      <c r="S29">
+        <v>0.002989403078144372</v>
+      </c>
+      <c r="T29">
+        <v>0.002989403078144372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H30">
+        <v>2.701786</v>
+      </c>
+      <c r="I30">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J30">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.572368</v>
+      </c>
+      <c r="N30">
+        <v>43.717104</v>
+      </c>
+      <c r="O30">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="P30">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="Q30">
+        <v>13.123806616416</v>
+      </c>
+      <c r="R30">
+        <v>118.114259547744</v>
+      </c>
+      <c r="S30">
+        <v>0.003447326801027225</v>
+      </c>
+      <c r="T30">
+        <v>0.003447326801027225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H31">
+        <v>2.701786</v>
+      </c>
+      <c r="I31">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J31">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.527042000000001</v>
+      </c>
+      <c r="N31">
+        <v>16.581126</v>
+      </c>
+      <c r="O31">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="P31">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="Q31">
+        <v>4.977628232337334</v>
+      </c>
+      <c r="R31">
+        <v>44.79865409103601</v>
+      </c>
+      <c r="S31">
+        <v>0.001307510215018116</v>
+      </c>
+      <c r="T31">
+        <v>0.001307510215018116</v>
       </c>
     </row>
   </sheetData>
